--- a/JourneyofLords/Assets/Scripts/GameData/UserData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F53263-E1F4-469F-9A45-51B8DF18E381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F79551-1F96-468B-A95E-0B06433955AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
